--- a/biology/Médecine/Aladár_Petz/Aladár_Petz.xlsx
+++ b/biology/Médecine/Aladár_Petz/Aladár_Petz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alad%C3%A1r_Petz</t>
+          <t>Aladár_Petz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aladár Petz (Petz Aladár en hongrois ; Aladár von Petz en allemand ; parfois Aladár de Petz en français et en anglais) (1888-1956) est un chirurgien et professeur hongrois. Il est mondialement célèbre pour être à l'origine de la pince mécanique anastomotique gastro-intestinale Petz (1921).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alad%C3%A1r_Petz</t>
+          <t>Aladár_Petz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, Lajos Petz, participa comme directeur de l'hôpital de Győr (de 1884 à 1922) à la création de son premier département de chirurgie, hôpital complètement modernisé et rouvert en 1895. Lajos Petz, membre de la Chambre Haute, est anobli par l'empereur François-Joseph en 1913. Aladár Petz passe sa jeunesse à Győr puis est diplômé de médecine de l'Université catholique Péter Pázmány de Budapest. Il y travaille à partir de 1911 au sein du premier département de médecine interne puis à partir de septembre 1913 jusqu'en 1919 dans le premier département de chirurgie tenu par le professeur Dollinger. Il est chirurgien militaire pendant trois ans sur les fronts de Bosnie et d'Italie durant la Première Guerre mondiale. Il est promu assistant du professeur du deuxième département de chirurgie en 1919 et y reste jusqu'à sa nomination à l'été 1922, à l'âge de 34 ans, comme directeur de l'Hôpital de La Trinité de Győr à la suite de son père et chef de son département de chirurgie.
 Il avait déjà à cette époque créé son "instrument de suture gastro-intestinale" qui le rendit célèbre à travers le monde.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alad%C3%A1r_Petz</t>
+          <t>Aladár_Petz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hôpital Petz de Győr (nommé ainsi en 1991), l'un des plus importants CHU de Hongrie.</t>
         </is>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alad%C3%A1r_Petz</t>
+          <t>Aladár_Petz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Oláh A. · Dézsi C.A., Aladár Petz (1888–1956) and His World-Renowned Invention: The Gastric Stapler, Dig Surg 2002;19:393–399 (DOI: 10.1159/000065837), sur Karger, Medical and Scientific Publishers pdf : biographie, photos
 Petz sur le site du groupe B. Braun
